--- a/CashFlow/PTON_cashflow.xlsx
+++ b/CashFlow/PTON_cashflow.xlsx
@@ -270,19 +270,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1326000000.0</v>
+        <v>-275600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1047000000.0</v>
+        <v>-145700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>613900000.0</v>
+        <v>-96800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>344100000.0</v>
+        <v>-71000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>145700000.0</v>
+        <v>-123400000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-154600000.0</v>
@@ -308,19 +308,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1274000000.0</v>
+        <v>367300000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>736000000.0</v>
+        <v>272300000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>478500000.0</v>
+        <v>133400000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>379100000.0</v>
+        <v>100600000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>195700000.0</v>
+        <v>93200000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>112900000.0</v>
